--- a/models/calculation engines/cbix2/outputs/capesize/common_data_inputs/actual_price_determination_from_CBIX_price/common_data_inputs_global_factors.xlsx
+++ b/models/calculation engines/cbix2/outputs/capesize/common_data_inputs/actual_price_determination_from_CBIX_price/common_data_inputs_global_factors.xlsx
@@ -635,7 +635,7 @@
         <v>0.975</v>
       </c>
       <c r="J2" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K2" t="n">
         <v>145.89</v>
@@ -741,7 +741,7 @@
         <v>0.975</v>
       </c>
       <c r="J3" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K3" t="n">
         <v>145.89</v>
@@ -847,7 +847,7 @@
         <v>0.975</v>
       </c>
       <c r="J4" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K4" t="n">
         <v>145.89</v>
@@ -953,7 +953,7 @@
         <v>0.975</v>
       </c>
       <c r="J5" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K5" t="n">
         <v>145.89</v>
@@ -1059,7 +1059,7 @@
         <v>0.975</v>
       </c>
       <c r="J6" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K6" t="n">
         <v>145.89</v>
@@ -1165,7 +1165,7 @@
         <v>0.975</v>
       </c>
       <c r="J7" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K7" t="n">
         <v>145.89</v>
@@ -1271,7 +1271,7 @@
         <v>0.975</v>
       </c>
       <c r="J8" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K8" t="n">
         <v>145.89</v>
@@ -1377,7 +1377,7 @@
         <v>0.975</v>
       </c>
       <c r="J9" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K9" t="n">
         <v>145.89</v>
@@ -1483,7 +1483,7 @@
         <v>0.975</v>
       </c>
       <c r="J10" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K10" t="n">
         <v>145.89</v>
@@ -1589,7 +1589,7 @@
         <v>0.975</v>
       </c>
       <c r="J11" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K11" t="n">
         <v>145.89</v>
@@ -1695,7 +1695,7 @@
         <v>0.975</v>
       </c>
       <c r="J12" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K12" t="n">
         <v>145.89</v>
@@ -1801,7 +1801,7 @@
         <v>0.975</v>
       </c>
       <c r="J13" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K13" t="n">
         <v>145.89</v>
@@ -1907,7 +1907,7 @@
         <v>0.975</v>
       </c>
       <c r="J14" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K14" t="n">
         <v>145.89</v>
@@ -2013,7 +2013,7 @@
         <v>0.975</v>
       </c>
       <c r="J15" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K15" t="n">
         <v>145.89</v>
@@ -2119,7 +2119,7 @@
         <v>0.975</v>
       </c>
       <c r="J16" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K16" t="n">
         <v>145.89</v>
@@ -2225,7 +2225,7 @@
         <v>0.975</v>
       </c>
       <c r="J17" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K17" t="n">
         <v>145.89</v>
@@ -2331,7 +2331,7 @@
         <v>0.975</v>
       </c>
       <c r="J18" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K18" t="n">
         <v>145.89</v>
@@ -2437,7 +2437,7 @@
         <v>0.975</v>
       </c>
       <c r="J19" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K19" t="n">
         <v>145.89</v>
@@ -2543,7 +2543,7 @@
         <v>0.975</v>
       </c>
       <c r="J20" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K20" t="n">
         <v>145.89</v>
@@ -2649,7 +2649,7 @@
         <v>0.975</v>
       </c>
       <c r="J21" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K21" t="n">
         <v>145.89</v>
@@ -2755,7 +2755,7 @@
         <v>0.975</v>
       </c>
       <c r="J22" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K22" t="n">
         <v>145.89</v>
@@ -2861,7 +2861,7 @@
         <v>0.975</v>
       </c>
       <c r="J23" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K23" t="n">
         <v>145.89</v>
@@ -2967,7 +2967,7 @@
         <v>0.975</v>
       </c>
       <c r="J24" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K24" t="n">
         <v>145.89</v>
@@ -3073,7 +3073,7 @@
         <v>0.975</v>
       </c>
       <c r="J25" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K25" t="n">
         <v>145.89</v>
@@ -3179,7 +3179,7 @@
         <v>0.975</v>
       </c>
       <c r="J26" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K26" t="n">
         <v>145.89</v>
@@ -3285,7 +3285,7 @@
         <v>0.975</v>
       </c>
       <c r="J27" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K27" t="n">
         <v>145.89</v>
@@ -3391,7 +3391,7 @@
         <v>0.975</v>
       </c>
       <c r="J28" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K28" t="n">
         <v>145.89</v>
@@ -3497,7 +3497,7 @@
         <v>0.975</v>
       </c>
       <c r="J29" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K29" t="n">
         <v>145.89</v>
@@ -3603,7 +3603,7 @@
         <v>0.975</v>
       </c>
       <c r="J30" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K30" t="n">
         <v>145.89</v>
@@ -3709,7 +3709,7 @@
         <v>0.975</v>
       </c>
       <c r="J31" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K31" t="n">
         <v>145.89</v>
@@ -3815,7 +3815,7 @@
         <v>0.975</v>
       </c>
       <c r="J32" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K32" t="n">
         <v>145.89</v>
@@ -3921,7 +3921,7 @@
         <v>0.975</v>
       </c>
       <c r="J33" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K33" t="n">
         <v>145.89</v>
@@ -4027,7 +4027,7 @@
         <v>0.975</v>
       </c>
       <c r="J34" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K34" t="n">
         <v>145.89</v>
@@ -4133,7 +4133,7 @@
         <v>0.975</v>
       </c>
       <c r="J35" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K35" t="n">
         <v>145.89</v>
@@ -4239,7 +4239,7 @@
         <v>0.975</v>
       </c>
       <c r="J36" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K36" t="n">
         <v>145.89</v>
@@ -4345,7 +4345,7 @@
         <v>0.975</v>
       </c>
       <c r="J37" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K37" t="n">
         <v>145.89</v>
@@ -4451,7 +4451,7 @@
         <v>0.975</v>
       </c>
       <c r="J38" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K38" t="n">
         <v>145.89</v>
@@ -4557,7 +4557,7 @@
         <v>0.975</v>
       </c>
       <c r="J39" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K39" t="n">
         <v>145.89</v>
@@ -4663,7 +4663,7 @@
         <v>0.975</v>
       </c>
       <c r="J40" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K40" t="n">
         <v>145.89</v>
@@ -4769,7 +4769,7 @@
         <v>0.975</v>
       </c>
       <c r="J41" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K41" t="n">
         <v>145.89</v>
@@ -4875,7 +4875,7 @@
         <v>0.975</v>
       </c>
       <c r="J42" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K42" t="n">
         <v>145.89</v>
@@ -4981,7 +4981,7 @@
         <v>0.975</v>
       </c>
       <c r="J43" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K43" t="n">
         <v>145.89</v>
@@ -5087,7 +5087,7 @@
         <v>0.975</v>
       </c>
       <c r="J44" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K44" t="n">
         <v>145.89</v>
@@ -5193,7 +5193,7 @@
         <v>0.975</v>
       </c>
       <c r="J45" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K45" t="n">
         <v>145.89</v>
@@ -5299,7 +5299,7 @@
         <v>0.975</v>
       </c>
       <c r="J46" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K46" t="n">
         <v>145.89</v>
